--- a/graphs/calibro_pretensionata_statico.xlsx
+++ b/graphs/calibro_pretensionata_statico.xlsx
@@ -452,10 +452,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>72.26000000000001</v>
+        <v>0.07226</v>
       </c>
       <c r="C2" t="n">
-        <v>112.16</v>
+        <v>1.1002896</v>
       </c>
       <c r="D2" t="n">
         <v>0.02</v>
@@ -469,10 +469,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>85.73999999999999</v>
+        <v>0.08574</v>
       </c>
       <c r="C3" t="n">
-        <v>132.82</v>
+        <v>1.3029642</v>
       </c>
       <c r="D3" t="n">
         <v>0.02</v>
@@ -486,10 +486,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>98.76000000000001</v>
+        <v>0.09876</v>
       </c>
       <c r="C4" t="n">
-        <v>152.81</v>
+        <v>1.4990661</v>
       </c>
       <c r="D4" t="n">
         <v>0.02</v>
@@ -503,10 +503,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>108.74</v>
+        <v>0.10874</v>
       </c>
       <c r="C5" t="n">
-        <v>172.82</v>
+        <v>1.6953642</v>
       </c>
       <c r="D5" t="n">
         <v>0.02</v>
@@ -520,10 +520,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>123.46</v>
+        <v>0.12346</v>
       </c>
       <c r="C6" t="n">
-        <v>192.68</v>
+        <v>1.8901908</v>
       </c>
       <c r="D6" t="n">
         <v>0.02</v>

--- a/graphs/calibro_pretensionata_statico.xlsx
+++ b/graphs/calibro_pretensionata_statico.xlsx
@@ -458,10 +458,10 @@
         <v>1.1002896</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>2e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3087171593035639</v>
+        <v>0.0003087171593035638</v>
       </c>
     </row>
     <row r="3">
@@ -475,10 +475,10 @@
         <v>1.3029642</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>2e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3087171593035639</v>
+        <v>0.0003087171593035638</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         <v>1.4990661</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>2e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3087171593035639</v>
+        <v>0.0003087171593035638</v>
       </c>
     </row>
     <row r="5">
@@ -509,10 +509,10 @@
         <v>1.6953642</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02</v>
+        <v>2e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3087171593035639</v>
+        <v>0.0003087171593035638</v>
       </c>
     </row>
     <row r="6">
@@ -526,10 +526,10 @@
         <v>1.8901908</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02</v>
+        <v>2e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3087171593035639</v>
+        <v>0.0003087171593035638</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/calibro_pretensionata_statico.xlsx
+++ b/graphs/calibro_pretensionata_statico.xlsx
@@ -461,7 +461,7 @@
         <v>2e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0003087171593035638</v>
+        <v>0.0003237744499624114</v>
       </c>
     </row>
     <row r="3">
@@ -478,7 +478,7 @@
         <v>2e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0003087171593035638</v>
+        <v>0.0003237744499624114</v>
       </c>
     </row>
     <row r="4">
@@ -495,7 +495,7 @@
         <v>2e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0003087171593035638</v>
+        <v>0.0003237744499624114</v>
       </c>
     </row>
     <row r="5">
@@ -512,7 +512,7 @@
         <v>2e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0003087171593035638</v>
+        <v>0.0003237744499624114</v>
       </c>
     </row>
     <row r="6">
@@ -529,7 +529,7 @@
         <v>2e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0003087171593035638</v>
+        <v>0.0003237744499624114</v>
       </c>
     </row>
   </sheetData>
